--- a/biology/Botanique/George_William_Clinton/George_William_Clinton.xlsx
+++ b/biology/Botanique/George_William_Clinton/George_William_Clinton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George William Clinton est un homme politique et un botaniste américain, né le 21 avril 1807 à Brooklyn et mort le 7 septembre 1885 à Albany (New York).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le petit-neveu de George Clinton (1739-1812), gouverneur de New York et vice-président en 1804, et le fils de DeWitt Clinton (1769-1828), sénateur de New York et maire de la ville.
 Il étudie à Albany puis la médecine auprès de Theodric Romeyn Beck (1791-1855) au Fairfield Medical School et manifeste un fort intérêt pour la botanique. En février 1828, son père meurt brutalement. Il s’oriente alors vers des études de droit auprès de John Canfield Spencer (1788-1855) et est admis au barreau en 1831. L’année suivante, il se marie avec la fille de John Spencer, Laura Catherine, union dont naîtra neuf enfants. Il s’installe à Buffalo en 1836.
